--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H2">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I2">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J2">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.19890333333333</v>
+        <v>74.98881166666666</v>
       </c>
       <c r="N2">
-        <v>219.59671</v>
+        <v>224.966435</v>
       </c>
       <c r="O2">
-        <v>0.6596328743217018</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="P2">
-        <v>0.6596328743217019</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="Q2">
-        <v>1964.530076991682</v>
+        <v>7.067795484665556</v>
       </c>
       <c r="R2">
-        <v>17680.77069292514</v>
+        <v>63.61015936199</v>
       </c>
       <c r="S2">
-        <v>0.5859288635775435</v>
+        <v>0.01806232386255283</v>
       </c>
       <c r="T2">
-        <v>0.5859288635775436</v>
+        <v>0.01806232386255283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H3">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I3">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J3">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.661646333333334</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N3">
         <v>28.984939</v>
       </c>
       <c r="O3">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056159</v>
       </c>
       <c r="P3">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056158</v>
       </c>
       <c r="Q3">
-        <v>259.3016281768029</v>
+        <v>0.910623049111778</v>
       </c>
       <c r="R3">
-        <v>2333.714653591226</v>
+        <v>8.195607442006001</v>
       </c>
       <c r="S3">
-        <v>0.07733773593026244</v>
+        <v>0.002327170963767721</v>
       </c>
       <c r="T3">
-        <v>0.07733773593026246</v>
+        <v>0.002327170963767721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H4">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I4">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J4">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.10860633333334</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N4">
-        <v>84.32581900000001</v>
+        <v>84.325819</v>
       </c>
       <c r="O4">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="P4">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="Q4">
-        <v>754.3856540130164</v>
+        <v>2.649273625058445</v>
       </c>
       <c r="R4">
-        <v>6789.470886117148</v>
+        <v>23.843462625526</v>
       </c>
       <c r="S4">
-        <v>0.2249985042895936</v>
+        <v>0.006770433343769754</v>
       </c>
       <c r="T4">
-        <v>0.2249985042895936</v>
+        <v>0.006770433343769753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.717033</v>
       </c>
       <c r="I5">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J5">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.19890333333333</v>
+        <v>74.98881166666666</v>
       </c>
       <c r="N5">
-        <v>219.59671</v>
+        <v>224.966435</v>
       </c>
       <c r="O5">
-        <v>0.6596328743217018</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="P5">
-        <v>0.6596328743217019</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="Q5">
-        <v>90.69424641793665</v>
+        <v>92.91196253192832</v>
       </c>
       <c r="R5">
-        <v>816.2482177614299</v>
+        <v>836.2076627873549</v>
       </c>
       <c r="S5">
-        <v>0.02704991761595122</v>
+        <v>0.237444046251499</v>
       </c>
       <c r="T5">
-        <v>0.02704991761595123</v>
+        <v>0.237444046251499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.717033</v>
       </c>
       <c r="I6">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J6">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.661646333333334</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N6">
         <v>28.984939</v>
       </c>
       <c r="O6">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056159</v>
       </c>
       <c r="P6">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056158</v>
       </c>
       <c r="Q6">
         <v>11.97088608510967</v>
@@ -818,10 +818,10 @@
         <v>107.737974765987</v>
       </c>
       <c r="S6">
-        <v>0.003570364109978568</v>
+        <v>0.0305925690493023</v>
       </c>
       <c r="T6">
-        <v>0.003570364109978569</v>
+        <v>0.0305925690493023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.717033</v>
       </c>
       <c r="I7">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J7">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.10860633333334</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N7">
-        <v>84.32581900000001</v>
+        <v>84.325819</v>
       </c>
       <c r="O7">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="P7">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="Q7">
-        <v>34.82687244166967</v>
+        <v>34.82687244166966</v>
       </c>
       <c r="R7">
         <v>313.441851975027</v>
       </c>
       <c r="S7">
-        <v>0.01038725241761416</v>
+        <v>0.08900289355090472</v>
       </c>
       <c r="T7">
-        <v>0.01038725241761416</v>
+        <v>0.08900289355090472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I8">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J8">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.19890333333333</v>
+        <v>74.98881166666666</v>
       </c>
       <c r="N8">
-        <v>219.59671</v>
+        <v>224.966435</v>
       </c>
       <c r="O8">
-        <v>0.6596328743217018</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="P8">
-        <v>0.6596328743217019</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="Q8">
-        <v>156.4240556533089</v>
+        <v>160.2490408374811</v>
       </c>
       <c r="R8">
-        <v>1407.81650087978</v>
+        <v>1442.24136753733</v>
       </c>
       <c r="S8">
-        <v>0.04665409312820704</v>
+        <v>0.4095294042604861</v>
       </c>
       <c r="T8">
-        <v>0.04665409312820706</v>
+        <v>0.4095294042604861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I9">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J9">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.661646333333334</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N9">
         <v>28.984939</v>
       </c>
       <c r="O9">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056159</v>
       </c>
       <c r="P9">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056158</v>
       </c>
       <c r="Q9">
         <v>20.64667412933356</v>
@@ -1004,10 +1004,10 @@
         <v>185.820067164002</v>
       </c>
       <c r="S9">
-        <v>0.006157952199836694</v>
+        <v>0.05276424814749157</v>
       </c>
       <c r="T9">
-        <v>0.006157952199836695</v>
+        <v>0.05276424814749157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I10">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J10">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.10860633333334</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N10">
-        <v>84.32581900000001</v>
+        <v>84.325819</v>
       </c>
       <c r="O10">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="P10">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="Q10">
-        <v>60.0673234324269</v>
+        <v>60.06732343242689</v>
       </c>
       <c r="R10">
-        <v>540.6059108918421</v>
+        <v>540.605910891842</v>
       </c>
       <c r="S10">
-        <v>0.01791531673101264</v>
+        <v>0.1535069105702261</v>
       </c>
       <c r="T10">
-        <v>0.01791531673101265</v>
+        <v>0.1535069105702261</v>
       </c>
     </row>
   </sheetData>
